--- a/DE/E4_Despacho_Economico_Basico_Red_Congest.xlsx
+++ b/DE/E4_Despacho_Economico_Basico_Red_Congest.xlsx
@@ -5,135 +5,135 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/MSExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="973" documentId="8_{5760BE0F-1F64-447B-A6AD-E34E46961D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4D66D1C7-D972-8C4F-8F62-45F4527745C4}"/>
+  <xr:revisionPtr revIDLastSave="996" documentId="8_{5760BE0F-1F64-447B-A6AD-E34E46961D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{110DE0AA-96BD-C848-BF77-55CA97181484}"/>
   <bookViews>
-    <workbookView xWindow="36700" yWindow="1520" windowWidth="30380" windowHeight="19620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36680" yWindow="1520" windowWidth="30380" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensitivity Report 2" sheetId="36" r:id="rId1"/>
-    <sheet name="DE Básico + Congestion" sheetId="21" r:id="rId2"/>
-    <sheet name="Database" sheetId="33" r:id="rId3"/>
+    <sheet name="Database" sheetId="33" r:id="rId1"/>
+    <sheet name="Sensitivity Report 2" sheetId="36" r:id="rId2"/>
+    <sheet name="DE Básico + Congestion" sheetId="21" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_B11" localSheetId="1">'DE Básico + Congestion'!$K$8</definedName>
+    <definedName name="_B11" localSheetId="2">'DE Básico + Congestion'!$K$8</definedName>
     <definedName name="_B11">#REF!</definedName>
-    <definedName name="_B12" localSheetId="1">'DE Básico + Congestion'!$L$8</definedName>
+    <definedName name="_B12" localSheetId="2">'DE Básico + Congestion'!$L$8</definedName>
     <definedName name="_B12">#REF!</definedName>
-    <definedName name="_B13" localSheetId="1">'DE Básico + Congestion'!$M$8</definedName>
+    <definedName name="_B13" localSheetId="2">'DE Básico + Congestion'!$M$8</definedName>
     <definedName name="_B13">#REF!</definedName>
-    <definedName name="_B21" localSheetId="1">'DE Básico + Congestion'!$K$9</definedName>
+    <definedName name="_B21" localSheetId="2">'DE Básico + Congestion'!$K$9</definedName>
     <definedName name="_B21">#REF!</definedName>
-    <definedName name="_B22" localSheetId="1">'DE Básico + Congestion'!$L$9</definedName>
+    <definedName name="_B22" localSheetId="2">'DE Básico + Congestion'!$L$9</definedName>
     <definedName name="_B22">#REF!</definedName>
-    <definedName name="_B23" localSheetId="1">'DE Básico + Congestion'!$M$9</definedName>
+    <definedName name="_B23" localSheetId="2">'DE Básico + Congestion'!$M$9</definedName>
     <definedName name="_B23">#REF!</definedName>
-    <definedName name="_B31" localSheetId="1">'DE Básico + Congestion'!$K$10</definedName>
+    <definedName name="_B31" localSheetId="2">'DE Básico + Congestion'!$K$10</definedName>
     <definedName name="_B31">#REF!</definedName>
-    <definedName name="_B32" localSheetId="1">'DE Básico + Congestion'!$L$10</definedName>
+    <definedName name="_B32" localSheetId="2">'DE Básico + Congestion'!$L$10</definedName>
     <definedName name="_B32">#REF!</definedName>
-    <definedName name="_B33" localSheetId="1">'DE Básico + Congestion'!$M$10</definedName>
+    <definedName name="_B33" localSheetId="2">'DE Básico + Congestion'!$M$10</definedName>
     <definedName name="_B33">#REF!</definedName>
-    <definedName name="_G11" localSheetId="1">'DE Básico + Congestion'!$G$8</definedName>
+    <definedName name="_G11" localSheetId="2">'DE Básico + Congestion'!$G$8</definedName>
     <definedName name="_G11">#REF!</definedName>
-    <definedName name="_G12" localSheetId="1">'DE Básico + Congestion'!$H$8</definedName>
+    <definedName name="_G12" localSheetId="2">'DE Básico + Congestion'!$H$8</definedName>
     <definedName name="_G12">#REF!</definedName>
-    <definedName name="_G13" localSheetId="1">'DE Básico + Congestion'!$I$8</definedName>
+    <definedName name="_G13" localSheetId="2">'DE Básico + Congestion'!$I$8</definedName>
     <definedName name="_G13">#REF!</definedName>
-    <definedName name="_G21" localSheetId="1">'DE Básico + Congestion'!$G$9</definedName>
+    <definedName name="_G21" localSheetId="2">'DE Básico + Congestion'!$G$9</definedName>
     <definedName name="_G21">#REF!</definedName>
-    <definedName name="_G22" localSheetId="1">'DE Básico + Congestion'!$H$9</definedName>
+    <definedName name="_G22" localSheetId="2">'DE Básico + Congestion'!$H$9</definedName>
     <definedName name="_G22">#REF!</definedName>
-    <definedName name="_G23" localSheetId="1">'DE Básico + Congestion'!$I$9</definedName>
+    <definedName name="_G23" localSheetId="2">'DE Básico + Congestion'!$I$9</definedName>
     <definedName name="_G23">#REF!</definedName>
-    <definedName name="_G31" localSheetId="1">'DE Básico + Congestion'!$G$10</definedName>
+    <definedName name="_G31" localSheetId="2">'DE Básico + Congestion'!$G$10</definedName>
     <definedName name="_G31">#REF!</definedName>
-    <definedName name="_G32" localSheetId="1">'DE Básico + Congestion'!$H$10</definedName>
+    <definedName name="_G32" localSheetId="2">'DE Básico + Congestion'!$H$10</definedName>
     <definedName name="_G32">#REF!</definedName>
-    <definedName name="_G33" localSheetId="1">'DE Básico + Congestion'!$I$10</definedName>
+    <definedName name="_G33" localSheetId="2">'DE Básico + Congestion'!$I$10</definedName>
     <definedName name="_G33">#REF!</definedName>
-    <definedName name="_PD1" localSheetId="1">'DE Básico + Congestion'!$B$13</definedName>
+    <definedName name="_PD1" localSheetId="2">'DE Básico + Congestion'!$B$13</definedName>
     <definedName name="_PD1">#REF!</definedName>
-    <definedName name="_PD2" localSheetId="1">'DE Básico + Congestion'!$B$14</definedName>
+    <definedName name="_PD2" localSheetId="2">'DE Básico + Congestion'!$B$14</definedName>
     <definedName name="_PD2">#REF!</definedName>
-    <definedName name="_PD3" localSheetId="1">'DE Básico + Congestion'!$B$15</definedName>
+    <definedName name="_PD3" localSheetId="2">'DE Básico + Congestion'!$B$15</definedName>
     <definedName name="_PD3">#REF!</definedName>
-    <definedName name="_PG1" localSheetId="1">'DE Básico + Congestion'!$D$13</definedName>
+    <definedName name="_PG1" localSheetId="2">'DE Básico + Congestion'!$D$13</definedName>
     <definedName name="_PG1">#REF!</definedName>
-    <definedName name="_PG2" localSheetId="1">'DE Básico + Congestion'!$D$14</definedName>
+    <definedName name="_PG2" localSheetId="2">'DE Básico + Congestion'!$D$14</definedName>
     <definedName name="_PG2">#REF!</definedName>
-    <definedName name="_PG3" localSheetId="1">'DE Básico + Congestion'!$B$19</definedName>
+    <definedName name="_PG3" localSheetId="2">'DE Básico + Congestion'!$B$19</definedName>
     <definedName name="_PG3">#REF!</definedName>
-    <definedName name="_QD1" localSheetId="1">'DE Básico + Congestion'!$B$16</definedName>
+    <definedName name="_QD1" localSheetId="2">'DE Básico + Congestion'!$B$16</definedName>
     <definedName name="_QD1">#REF!</definedName>
-    <definedName name="_QD2" localSheetId="1">'DE Básico + Congestion'!$B$17</definedName>
+    <definedName name="_QD2" localSheetId="2">'DE Básico + Congestion'!$B$17</definedName>
     <definedName name="_QD2">#REF!</definedName>
-    <definedName name="_QD3" localSheetId="1">'DE Básico + Congestion'!$B$18</definedName>
+    <definedName name="_QD3" localSheetId="2">'DE Básico + Congestion'!$B$18</definedName>
     <definedName name="_QD3">#REF!</definedName>
-    <definedName name="_QG1" localSheetId="1">'DE Básico + Congestion'!$D$15</definedName>
+    <definedName name="_QG1" localSheetId="2">'DE Básico + Congestion'!$D$15</definedName>
     <definedName name="_QG1">#REF!</definedName>
-    <definedName name="_QG2" localSheetId="1">'DE Básico + Congestion'!$D$16</definedName>
+    <definedName name="_QG2" localSheetId="2">'DE Básico + Congestion'!$D$16</definedName>
     <definedName name="_QG2">#REF!</definedName>
-    <definedName name="_QG3" localSheetId="1">'DE Básico + Congestion'!$B$20</definedName>
+    <definedName name="_QG3" localSheetId="2">'DE Básico + Congestion'!$B$20</definedName>
     <definedName name="_QG3">#REF!</definedName>
-    <definedName name="_T1" localSheetId="1">'DE Básico + Congestion'!$B$10</definedName>
+    <definedName name="_T1" localSheetId="2">'DE Básico + Congestion'!$B$10</definedName>
     <definedName name="_T1">#REF!</definedName>
-    <definedName name="_T2" localSheetId="1">'DE Básico + Congestion'!$D$11</definedName>
+    <definedName name="_T2" localSheetId="2">'DE Básico + Congestion'!$D$11</definedName>
     <definedName name="_T2">#REF!</definedName>
-    <definedName name="_T3" localSheetId="1">'DE Básico + Congestion'!$D$12</definedName>
+    <definedName name="_T3" localSheetId="2">'DE Básico + Congestion'!$D$12</definedName>
     <definedName name="_T3">#REF!</definedName>
-    <definedName name="_V1" localSheetId="1">'DE Básico + Congestion'!$B$11</definedName>
+    <definedName name="_V1" localSheetId="2">'DE Básico + Congestion'!$B$11</definedName>
     <definedName name="_V1">#REF!</definedName>
-    <definedName name="_V2" localSheetId="1">'DE Básico + Congestion'!$B$12</definedName>
+    <definedName name="_V2" localSheetId="2">'DE Básico + Congestion'!$B$12</definedName>
     <definedName name="_V2">#REF!</definedName>
-    <definedName name="_V3" localSheetId="1">'DE Básico + Congestion'!$D$10</definedName>
+    <definedName name="_V3" localSheetId="2">'DE Básico + Congestion'!$D$10</definedName>
     <definedName name="_V3">#REF!</definedName>
     <definedName name="Sbase">'DE Básico + Congestion'!$B$7</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'DE Básico + Congestion'!$D$10,'DE Básico + Congestion'!$D$11,'DE Básico + Congestion'!$D$12,'DE Básico + Congestion'!$D$13,'DE Básico + Congestion'!$D$14,'DE Básico + Congestion'!$D$15,'DE Básico + Congestion'!$D$16</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_lhs0" localSheetId="1" hidden="1">'DE Básico + Congestion'!$C$30:$C$31</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'DE Básico + Congestion'!$C$29:$C$34</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'DE Básico + Congestion'!$H$46</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'DE Básico + Congestion'!$D$13:$D$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'DE Básico + Congestion'!$D$14</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'DE Básico + Congestion'!$D$27</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel0" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs0" localSheetId="1" hidden="1">'DE Básico + Congestion'!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'DE Básico + Congestion'!$D$29:$D$34</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'DE Básico + Congestion'!$J$46</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'DE Básico + Congestion'!$D$10,'DE Básico + Congestion'!$D$11,'DE Básico + Congestion'!$D$12,'DE Básico + Congestion'!$D$13,'DE Básico + Congestion'!$D$14,'DE Básico + Congestion'!$D$15,'DE Básico + Congestion'!$D$16</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_lhs0" localSheetId="2" hidden="1">'DE Básico + Congestion'!$C$30:$C$31</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'DE Básico + Congestion'!$C$29:$C$34</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'DE Básico + Congestion'!$H$46</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'DE Básico + Congestion'!$D$13:$D$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'DE Básico + Congestion'!$D$14</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'DE Básico + Congestion'!$D$27</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel0" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs0" localSheetId="2" hidden="1">'DE Básico + Congestion'!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'DE Básico + Congestion'!$D$29:$D$34</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'DE Básico + Congestion'!$J$46</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="152">
   <si>
     <t>Sbase</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>Control</t>
-  </si>
-  <si>
-    <t>Incógnitas</t>
   </si>
   <si>
     <t>Despacho</t>
@@ -841,6 +838,12 @@
   </si>
   <si>
     <t>Caso de Estudio 2</t>
+  </si>
+  <si>
+    <t>Control pu</t>
+  </si>
+  <si>
+    <t>Incógnitas pu</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1373,6 +1376,10 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1391,7 +1398,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1423,6 +1429,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184638</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>644769</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F3E115-E927-C542-974D-EF2D0599FCA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="184638" y="22218"/>
+          <a:ext cx="2111131" cy="861598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3303,55 +3358,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>184638</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>644769</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7516</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F3E115-E927-C542-974D-EF2D0599FCA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="184638" y="22218"/>
-          <a:ext cx="2111131" cy="861598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3614,71 +3620,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E4E0DC-F611-534C-B29D-27F4B7B8E407}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="87"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="13">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>400</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="16">
+        <v>200</v>
+      </c>
+      <c r="D14" s="16">
+        <v>25</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>300</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="24">
+        <f>C18</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
+        <v>250</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>200</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D375B8E-1207-4C18-A952-5F64BE97625E}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G22" sqref="G20:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="73" t="s">
-        <v>74</v>
-      </c>
       <c r="D8" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>83</v>
       </c>
       <c r="D9" s="38">
         <v>0.9980087422674736</v>
@@ -3689,10 +3947,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="D10" s="38">
         <v>-1.5059632191391812E-2</v>
@@ -3703,10 +3961,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="38">
         <v>-7.019730346348256E-2</v>
@@ -3717,10 +3975,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="38">
         <v>0.85059062962359988</v>
@@ -3731,10 +3989,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="D13" s="38">
         <v>0.39940937037640012</v>
@@ -3745,10 +4003,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>93</v>
       </c>
       <c r="D14" s="38">
         <v>4.5625668906479101E-2</v>
@@ -3759,10 +4017,10 @@
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>95</v>
       </c>
       <c r="D15" s="39">
         <v>3.6213220786662101E-2</v>
@@ -3771,122 +4029,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E19" s="73" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="D20" s="38">
         <v>0.85059062962359988</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="81">
         <v>5701.18310546875</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="82"/>
+      <c r="G20" s="81">
+        <f>E20/200</f>
+        <v>28.505915527343749</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>99</v>
       </c>
       <c r="D21" s="38">
         <v>0.39940937037640012</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="81">
         <v>6597.64013671875</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="82"/>
+      <c r="G21" s="81">
+        <f t="shared" ref="G21:G25" si="0">E21/200</f>
+        <v>32.988200683593753</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>100</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>101</v>
       </c>
       <c r="D22" s="38">
         <v>-1.25</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="81">
         <v>7496.7746298275806</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="82"/>
+      <c r="G22" s="81">
+        <f t="shared" si="0"/>
+        <v>37.483873149137906</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>102</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>103</v>
       </c>
       <c r="D23" s="38">
         <v>4.5625668906479101E-2</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="82"/>
+      <c r="G23" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>105</v>
       </c>
       <c r="D24" s="38">
         <v>3.6213220786662101E-2</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="82"/>
+      <c r="G24" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="D25" s="38">
         <v>0</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="81">
         <v>-6.83041415073113</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="82"/>
+      <c r="G25" s="81">
+        <f t="shared" si="0"/>
+        <v>-3.4152070753655651E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>1</v>
@@ -3894,8 +4197,13 @@
       <c r="D26" s="39">
         <v>140.0000001789081</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="83">
         <v>-13.482168462607149</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83">
+        <f>E26/200</f>
+        <v>-6.7410842313035749E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3903,13 +4211,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3943,8 +4251,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="E3" s="86" t="s">
-        <v>149</v>
+      <c r="E3" s="80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3961,16 +4269,16 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -4018,14 +4326,14 @@
       </c>
     </row>
     <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="A9" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="88"/>
       <c r="E9" s="7"/>
       <c r="F9" s="19" t="s">
         <v>30</v>
@@ -4180,15 +4488,15 @@
       <c r="D12" s="30">
         <v>-7.019730346348256E-2</v>
       </c>
-      <c r="E12" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="81"/>
+      <c r="E12" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="85"/>
       <c r="G12" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="45" t="s">
         <v>136</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>137</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -4331,13 +4639,13 @@
         <v>9.1251337812958209</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -4377,7 +4685,7 @@
         <v>7.2426441573324203</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4524,7 +4832,7 @@
         <v>7.2426441573324203</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -4588,20 +4896,20 @@
         <v>9.1251337812958209</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
     <row r="22" spans="1:30" s="7" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
+      <c r="A22" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -4619,16 +4927,16 @@
     </row>
     <row r="23" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>39</v>
@@ -4669,7 +4977,7 @@
         <v>17.061812592471998</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" s="6">
         <f>'Sensitivity Report 2'!E20/Sbase</f>
@@ -4706,7 +5014,7 @@
         <v>21.364765740589998</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="6">
         <f>'Sensitivity Report 2'!E21/Sbase</f>
@@ -4727,7 +5035,7 @@
       <c r="A26" s="19"/>
       <c r="F26" s="6"/>
       <c r="G26" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H26" s="6">
         <f>'Sensitivity Report 2'!E22/Sbase</f>
@@ -4752,7 +5060,7 @@
     </row>
     <row r="27" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="7"/>
@@ -4764,7 +5072,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -4773,17 +5081,17 @@
         <v>0</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="G28" s="79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" s="6">
         <f>H24-H25</f>
@@ -4797,7 +5105,7 @@
     </row>
     <row r="29" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="33">
         <f>_PG1-_PD1</f>
@@ -4808,10 +5116,10 @@
         <v>0.85059063051973882</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" s="79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" s="6">
         <f>H24-H26</f>
@@ -4825,7 +5133,7 @@
     </row>
     <row r="30" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="33">
         <f>_PG2-_PD2</f>
@@ -4836,14 +5144,14 @@
         <v>0.39940936948797268</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="33">
         <f>_PG3-_PD3</f>
@@ -4854,14 +5162,14 @@
         <v>-1.2500000000077116</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M31" s="34"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="33">
         <f>_QG1-_QD1</f>
@@ -4872,7 +5180,7 @@
         <v>4.5625668719754486E-2</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -4880,7 +5188,7 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="33">
         <f>_QG2-_QD2</f>
@@ -4892,7 +5200,7 @@
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="7"/>
@@ -4904,7 +5212,7 @@
     <row r="34" spans="1:18" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="33">
         <f>_QG3-_QD3</f>
@@ -4916,7 +5224,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -4939,22 +5247,22 @@
     <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
       <c r="B36" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="54" t="s">
         <v>124</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>125</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="54"/>
       <c r="G36" s="69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="54"/>
       <c r="K36" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -4962,7 +5270,7 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="53">
         <f>E13*H24</f>
@@ -4978,14 +5286,14 @@
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="21">
         <f>_PD3*Sbase*H26</f>
         <v>9370.9682872844769</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K37" s="21">
         <f>G39-B39</f>
@@ -4997,7 +5305,7 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="55">
         <f>E14*H25</f>
@@ -5022,7 +5330,7 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="53">
         <f>SUM(B37:B38)</f>
@@ -5038,14 +5346,14 @@
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="21">
         <f>G37</f>
         <v>9370.9682872844769</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K39" s="21">
         <f>G39-B39</f>
@@ -5053,7 +5361,7 @@
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N39" s="70"/>
       <c r="O39" s="71"/>
@@ -5079,7 +5387,7 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="56"/>
       <c r="C41" s="7"/>
@@ -5088,12 +5396,12 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -5134,30 +5442,30 @@
       <c r="J43" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="M43" s="80"/>
+      <c r="L43" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="84"/>
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
       <c r="B44" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H44" s="62" t="s">
         <v>1</v>
@@ -5360,17 +5668,17 @@
         <v>52</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" s="40">
         <v>0</v>
@@ -5381,7 +5689,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5393,7 +5701,7 @@
         <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="40">
@@ -5404,7 +5712,7 @@
         <v>49</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -5429,7 +5737,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -8243,254 +8551,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E4E0DC-F611-534C-B29D-27F4B7B8E407}">
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="E2" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="E3" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="83"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
-        <v>100</v>
-      </c>
-      <c r="D13" s="13">
-        <v>20</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>400</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16">
-        <v>2</v>
-      </c>
-      <c r="C14" s="16">
-        <v>200</v>
-      </c>
-      <c r="D14" s="16">
-        <v>25</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>300</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="24">
-        <f>C18</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2">
-        <v>250</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>200</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I20" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I22" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I11:J11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/DE/E4_Despacho_Economico_Basico_Red_Congest.xlsx
+++ b/DE/E4_Despacho_Economico_Basico_Red_Congest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="996" documentId="8_{5760BE0F-1F64-447B-A6AD-E34E46961D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{110DE0AA-96BD-C848-BF77-55CA97181484}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="8_{5760BE0F-1F64-447B-A6AD-E34E46961D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4C1A0FF-F0B4-1247-8576-1294E699042B}"/>
   <bookViews>
     <workbookView xWindow="36680" yWindow="1520" windowWidth="30380" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1380,6 +1380,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1387,9 +1390,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3682,10 +3682,10 @@
       <c r="G11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
@@ -4217,7 +4217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24:I26"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4269,16 +4269,16 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
     </row>
     <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -4326,10 +4326,10 @@
       </c>
     </row>
     <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="88" t="s">
         <v>151</v>
       </c>
@@ -4488,10 +4488,10 @@
       <c r="D12" s="30">
         <v>-7.019730346348256E-2</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="45" t="s">
         <v>135</v>
       </c>
@@ -4535,7 +4535,8 @@
         <v>0.85059062962359988</v>
       </c>
       <c r="E13" s="75">
-        <v>170.12</v>
+        <f>_PG1*Sbase</f>
+        <v>170.11812592471998</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>52</v>
@@ -4585,7 +4586,8 @@
         <v>0.39940937037640012</v>
       </c>
       <c r="E14" s="75">
-        <v>79.989999999999995</v>
+        <f>_PG2*Sbase</f>
+        <v>79.881874075280024</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>52</v>
@@ -4720,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="34">
+        <f>D13+D14</f>
+        <v>1.25</v>
+      </c>
+      <c r="E17" s="34">
+        <f>E13+E14</f>
+        <v>250</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -4967,7 +4975,7 @@
       </c>
       <c r="D24" s="8">
         <f>Database!C13+$B$24*E13+(1/2)*$C$24*(E13)^2</f>
-        <v>4225.9203600000001</v>
+        <v>4225.8669376978714</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
@@ -5004,7 +5012,7 @@
       </c>
       <c r="D25" s="8">
         <f>Database!C14+$B$25*E14+(1/2)*$C$25*(E14)^2</f>
-        <v>2519.6700049999999</v>
+        <v>2516.1025421709455</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>49</v>
@@ -5066,7 +5074,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="48">
         <f>D24+D25</f>
-        <v>6745.590365</v>
+        <v>6741.969479868817</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>49</v>
@@ -5274,15 +5282,15 @@
       </c>
       <c r="B37" s="53">
         <f>E13*H24</f>
-        <v>4849.4263495117184</v>
+        <v>4849.3729272800947</v>
       </c>
       <c r="C37" s="53">
         <f>D24</f>
-        <v>4225.9203600000001</v>
+        <v>4225.8669376978714</v>
       </c>
       <c r="D37" s="53">
         <f>B37-C37</f>
-        <v>623.50598951171833</v>
+        <v>623.50598958222326</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -5297,7 +5305,7 @@
       </c>
       <c r="K37" s="21">
         <f>G39-B39</f>
-        <v>1882.8157650920948</v>
+        <v>1886.43606702748</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -5309,15 +5317,15 @@
       </c>
       <c r="B38" s="55">
         <f>E14*H25</f>
-        <v>2638.7261726806641</v>
+        <v>2635.1592929769026</v>
       </c>
       <c r="C38" s="55">
         <f>D25</f>
-        <v>2519.6700049999999</v>
+        <v>2516.1025421709455</v>
       </c>
       <c r="D38" s="55">
         <f t="shared" ref="D38:D39" si="0">B38-C38</f>
-        <v>119.0561676806642</v>
+        <v>119.05675080595711</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="54"/>
@@ -5334,15 +5342,15 @@
       </c>
       <c r="B39" s="53">
         <f>SUM(B37:B38)</f>
-        <v>7488.1525221923821</v>
+        <v>7484.5322202569969</v>
       </c>
       <c r="C39" s="53">
         <f>SUM(C37:C38)</f>
-        <v>6745.590365</v>
+        <v>6741.969479868817</v>
       </c>
       <c r="D39" s="53">
         <f t="shared" si="0"/>
-        <v>742.56215719238207</v>
+        <v>742.56274038817992</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21" t="s">
@@ -5357,7 +5365,7 @@
       </c>
       <c r="K39" s="21">
         <f>G39-B39</f>
-        <v>1882.8157650920948</v>
+        <v>1886.43606702748</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="70" t="s">
@@ -5396,8 +5404,8 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
@@ -5442,10 +5450,10 @@
       <c r="J43" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="84" t="s">
+      <c r="L43" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="M43" s="84"/>
+      <c r="M43" s="85"/>
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
@@ -5695,7 +5703,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="40">
         <f>E14*K25</f>
-        <v>-358.53798964843782</v>
+        <v>-358.05333842105966</v>
       </c>
       <c r="E53" s="40" t="s">
         <v>49</v>
@@ -5706,7 +5714,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="40">
         <f>-D53</f>
-        <v>358.53798964843782</v>
+        <v>358.05333842105966</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
@@ -5780,7 +5788,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="40">
         <f>SUM(D52:D54)</f>
-        <v>1885.9514158001016</v>
+        <v>1886.4360670274798</v>
       </c>
       <c r="E55" s="40" t="s">
         <v>49</v>
